--- a/Weekly Log.xlsx
+++ b/Weekly Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\.Uni\.Y4\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\.Uni\.Y4\Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240631AC-C7E4-4A06-AAA2-41185F25B0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936A15B-A00E-4848-9BDF-9DDB9C94B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="7240" windowWidth="21600" windowHeight="11270" xr2:uid="{AD5151A5-EAE3-4530-B7BD-CE84CA64A9E8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Week</t>
   </si>
@@ -49,13 +49,50 @@
   <si>
     <t>Investigated existing solutions and potential languages to use
 Started first draft of project proposal</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 2</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 3</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 4</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 5</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 6</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 7</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 8</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 9</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 10</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 11</t>
+  </si>
+  <si>
+    <t>Autumn Term Week 12</t>
+  </si>
+  <si>
+    <t>Further development of project proposal - identification of core components and milestones
+Further research into existing solutions - determining persistent storage solution, and message broker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +104,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,15 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,59 +481,106 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>44830</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -564,6 +650,7 @@
       <c r="A30" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
